--- a/testdata/OHRM_DDT.xlsx
+++ b/testdata/OHRM_DDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON CT15\ORANGEH_PROJECT\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CDC910-D500-4150-A66C-F77AC5668495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A414B2-B7C7-4863-83D7-800F2DEDFEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>First_Name</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Virendra</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Sehwag</t>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Rudra</t>
+  </si>
+  <si>
+    <t>Pratap</t>
+  </si>
+  <si>
+    <t>EMP_ADDED</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -456,15 +459,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
